--- a/data/unchecked/manual_collect/bahrain/BahrainCaseStatistics_20200226.xlsx
+++ b/data/unchecked/manual_collect/bahrain/BahrainCaseStatistics_20200226.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\数据\海外\26日\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\数据\海外\bahrain\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9221" uniqueCount="3295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9222" uniqueCount="3296">
   <si>
     <t>统计级别</t>
   </si>
@@ -10288,6 +10288,9 @@
   <si>
     <t>巴林</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baijiahao.baidu.com/s?id=1659652613984594385&amp;wfr=spider&amp;for=pc</t>
   </si>
 </sst>
 </file>
@@ -10947,10 +10950,10 @@
         <v>3290</v>
       </c>
       <c r="C2" s="22">
-        <v>43886.5</v>
+        <v>43886</v>
       </c>
       <c r="D2" s="22">
-        <v>43887.5</v>
+        <v>43887</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>3294</v>
@@ -10959,12 +10962,12 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="24">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="20">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N2" s="21"/>
       <c r="O2" s="20"/>
@@ -10975,12 +10978,14 @@
       <c r="U2"/>
       <c r="V2" s="23"/>
       <c r="W2" s="22">
-        <v>43887.431944444441</v>
+        <v>43888.431944444441</v>
       </c>
       <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
+      <c r="Y2" s="21" t="s">
+        <v>3295</v>
+      </c>
       <c r="Z2" s="22">
-        <v>43887.598611111112</v>
+        <v>43888.848611111112</v>
       </c>
       <c r="AA2" s="19" t="s">
         <v>3291</v>
